--- a/WGRDBESstockCoord/format/RCEF_v14_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/personal/kibi/format_v14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{C9BBE645-0FF4-4A6A-97FD-C32B15314694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C7C4476-2565-4844-8D7F-535387C5C7DC}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{C9BBE645-0FF4-4A6A-97FD-C32B15314694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC93E811-8C63-4065-8965-711E1426F643}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="89">
   <si>
     <t>year</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Ageyear</t>
-  </si>
-  <si>
-    <t>DisBMS</t>
   </si>
 </sst>
 </file>
@@ -3887,7 +3884,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4022,7 +4019,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>

--- a/WGRDBESstockCoord/format/RCEF_v14_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/personal/kibi/format_v14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{C9BBE645-0FF4-4A6A-97FD-C32B15314694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC93E811-8C63-4065-8965-711E1426F643}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{C9BBE645-0FF4-4A6A-97FD-C32B15314694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4439D092-C00A-4843-9085-FAAEF1839226}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -3883,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4019,7 +4019,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
@@ -4028,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="9">
-        <v>34574.719664236181</v>
+        <v>350</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
@@ -4523,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4E606-8859-41CD-A927-0EFFEE5FD6B1}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11106,18 +11106,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -11294,6 +11282,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
   <ds:schemaRefs>
@@ -11303,23 +11303,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11336,4 +11319,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>